--- a/pages/source.xlsx
+++ b/pages/source.xlsx
@@ -1,129 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue band</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indomaret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/blueband.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">margarin filma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/margarin_filma.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">telur ayam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/telur_ayam.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roti tawar kupas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/roti_tawar.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sabun mandi 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/sabun_mandi.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot wheels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/hot_wheels.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabun cuci piring 100 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/sabun_cuci_piring.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lem kertas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/lem_kertas.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfamart</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>blue band</t>
+  </si>
+  <si>
+    <t>Indomaret</t>
+  </si>
+  <si>
+    <t>images/blueband.jpeg</t>
+  </si>
+  <si>
+    <t>margarin filma</t>
+  </si>
+  <si>
+    <t>images/margarin_filma.jpeg</t>
+  </si>
+  <si>
+    <t>telur ayam</t>
+  </si>
+  <si>
+    <t>images/telur_ayam.jpeg</t>
+  </si>
+  <si>
+    <t>roti tawar kupas</t>
+  </si>
+  <si>
+    <t>images/roti_tawar.jpeg</t>
+  </si>
+  <si>
+    <t>non food</t>
+  </si>
+  <si>
+    <t>sabun mandi 1L</t>
+  </si>
+  <si>
+    <t>images/sabun_mandi.jpeg</t>
+  </si>
+  <si>
+    <t>hot wheels</t>
+  </si>
+  <si>
+    <t>images/hot_wheels.jpeg</t>
+  </si>
+  <si>
+    <t>Sabun cuci piring 100 ml</t>
+  </si>
+  <si>
+    <t>images/sabun_cuci_piring.jpeg</t>
+  </si>
+  <si>
+    <t>Lem kertas</t>
+  </si>
+  <si>
+    <t>images/lem_kertas.jpeg</t>
+  </si>
+  <si>
+    <t>Alfamart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,8 +119,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -143,389 +135,709 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="4">
         <v>12000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="4">
         <v>12200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="4">
         <v>30000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="4">
         <v>20000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="4">
         <v>40000</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="4">
         <v>26000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="4">
         <v>10000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="4">
         <v>13000</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>12000</v>
+      <c r="C10" s="4">
+        <v>12200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>12200</v>
+      <c r="C11" s="4">
+        <v>12100</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>30000</v>
+      <c r="C12" s="4">
+        <v>29000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>20000</v>
+      <c r="C13" s="4">
+        <v>20100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>40000</v>
+      <c r="C14" s="4">
+        <v>41000</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>26000</v>
+      <c r="C15" s="4">
+        <v>25500</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>10000</v>
+      <c r="C16" s="4">
+        <v>10500</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>13000</v>
+      <c r="C17" s="4">
+        <v>13500</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pages/source.xlsx
+++ b/pages/source.xlsx
@@ -106,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -146,14 +146,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -463,22 +457,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="26.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,17 +486,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>12000</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -513,17 +503,15 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>12200</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -532,17 +520,15 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>30000</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -551,17 +537,15 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>20000</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -570,17 +554,15 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>40000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -589,17 +571,15 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>26000</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -608,17 +588,15 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>10000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -627,17 +605,15 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>13000</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -646,17 +622,15 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>12200</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -665,17 +639,15 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>12100</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -684,17 +656,15 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>29000</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -703,17 +673,15 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>20100</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -722,17 +690,15 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>41000</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -741,17 +707,15 @@
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>25500</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -760,17 +724,15 @@
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>10500</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -779,17 +741,15 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>13500</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -798,44 +758,6 @@
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
